--- a/TasksheetFinal (1).xlsx
+++ b/TasksheetFinal (1).xlsx
@@ -1171,33 +1171,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,9 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1542,21 +1540,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="33">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="30"/>
@@ -1568,8 +1566,8 @@
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="30"/>
@@ -1581,8 +1579,8 @@
         <v>8</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="30"/>
@@ -1594,8 +1592,8 @@
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="30"/>
@@ -1607,8 +1605,8 @@
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="30">
@@ -1622,8 +1620,8 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="30"/>
@@ -1635,8 +1633,8 @@
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="30"/>
@@ -1648,8 +1646,8 @@
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="30"/>
@@ -1661,8 +1659,8 @@
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="30"/>
@@ -1672,8 +1670,8 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="30"/>
@@ -1685,8 +1683,8 @@
         <v>8</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="30"/>
@@ -1698,8 +1696,8 @@
         <v>8</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="30"/>
@@ -1711,8 +1709,8 @@
         <v>8</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="30"/>
@@ -1722,8 +1720,8 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="30"/>
@@ -1735,8 +1733,8 @@
         <v>8</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="30"/>
@@ -1748,8 +1746,8 @@
         <v>8</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="30"/>
@@ -1761,8 +1759,8 @@
         <v>8</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="30"/>
@@ -1774,8 +1772,8 @@
         <v>8</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="30">
@@ -1789,8 +1787,8 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="30"/>
@@ -1802,8 +1800,8 @@
         <v>8</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="30"/>
@@ -1815,8 +1813,8 @@
         <v>8</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="30"/>
@@ -1828,8 +1826,8 @@
         <v>8</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="30"/>
@@ -1841,8 +1839,8 @@
         <v>8</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="30"/>
@@ -1852,8 +1850,8 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="30"/>
@@ -1863,8 +1861,8 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="30"/>
@@ -1876,8 +1874,8 @@
         <v>8</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="30"/>
@@ -1889,8 +1887,8 @@
         <v>8</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="30"/>
@@ -1902,8 +1900,8 @@
         <v>8</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="30"/>
@@ -1915,8 +1913,8 @@
         <v>8</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="30"/>
@@ -1928,8 +1926,8 @@
         <v>8</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="30"/>
@@ -1939,8 +1937,8 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="30"/>
@@ -1950,8 +1948,8 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="30"/>
@@ -1963,8 +1961,8 @@
         <v>8</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="30"/>
@@ -1976,8 +1974,8 @@
         <v>8</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="30"/>
@@ -1987,8 +1985,8 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="30"/>
@@ -2000,8 +1998,8 @@
         <v>8</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="30"/>
@@ -2013,8 +2011,8 @@
         <v>8</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="30"/>
@@ -2026,8 +2024,8 @@
         <v>8</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="30"/>
@@ -2039,8 +2037,8 @@
         <v>8</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="30"/>
@@ -2052,8 +2050,8 @@
         <v>8</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="30"/>
@@ -2065,8 +2063,8 @@
         <v>8</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="30"/>
@@ -2078,8 +2076,8 @@
         <v>8</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="30"/>
@@ -2091,8 +2089,8 @@
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="30"/>
@@ -2104,8 +2102,8 @@
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="30"/>
@@ -2117,8 +2115,8 @@
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="30"/>
@@ -2130,8 +2128,8 @@
       <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="30"/>
@@ -2143,8 +2141,8 @@
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="30"/>
@@ -2156,8 +2154,8 @@
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="30"/>
@@ -2169,8 +2167,8 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="30"/>
@@ -2182,8 +2180,8 @@
       <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="30"/>
@@ -2195,8 +2193,8 @@
       <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" s="30"/>
@@ -2208,8 +2206,8 @@
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="30"/>
@@ -2221,8 +2219,8 @@
         <v>8</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="30"/>
@@ -2234,8 +2232,8 @@
         <v>8</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
       <c r="A56" s="30"/>
@@ -2247,8 +2245,8 @@
       <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="30"/>
@@ -2260,8 +2258,8 @@
       <c r="E57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="30"/>
@@ -2273,8 +2271,8 @@
         <v>8</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="30"/>
@@ -2286,8 +2284,8 @@
       <c r="E59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="30"/>
@@ -2297,8 +2295,8 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="30"/>
@@ -2308,8 +2306,8 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="30"/>
@@ -2321,8 +2319,8 @@
       <c r="E62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
       <c r="A63" s="30"/>
@@ -2334,8 +2332,8 @@
         <v>8</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="30"/>
@@ -2345,8 +2343,8 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="30"/>
@@ -2358,8 +2356,8 @@
         <v>8</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="30"/>
@@ -2371,8 +2369,8 @@
         <v>8</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="30"/>
@@ -2384,8 +2382,8 @@
         <v>8</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="30"/>
@@ -2397,8 +2395,8 @@
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="30"/>
@@ -2410,8 +2408,8 @@
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
       <c r="A70" s="30"/>
@@ -2423,8 +2421,8 @@
       <c r="E70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="30"/>
@@ -2436,8 +2434,8 @@
       <c r="E71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
       <c r="A72" s="30"/>
@@ -2449,8 +2447,8 @@
       <c r="E72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="30"/>
@@ -2462,8 +2460,8 @@
       <c r="E73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="30"/>
@@ -2475,8 +2473,8 @@
       <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" s="30"/>
@@ -2488,8 +2486,8 @@
       <c r="E75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="A76" s="30"/>
@@ -2501,8 +2499,8 @@
       <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" s="30"/>
@@ -2514,8 +2512,8 @@
         <v>8</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" s="30"/>
@@ -2527,8 +2525,8 @@
         <v>8</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" s="30"/>
@@ -2540,8 +2538,8 @@
       <c r="E79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="1:7" ht="15.75">
       <c r="A80" s="30"/>
@@ -2553,8 +2551,8 @@
         <v>8</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="1:7" ht="15.75">
       <c r="A81" s="30"/>
@@ -2566,8 +2564,8 @@
       <c r="E81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="1:7" ht="15.75">
       <c r="A82" s="30"/>
@@ -2579,8 +2577,8 @@
       <c r="E82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:7" ht="15.75">
       <c r="A83" s="30"/>
@@ -2590,8 +2588,8 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
       <c r="A84" s="30"/>
@@ -2603,8 +2601,8 @@
       <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="1:7" ht="15.75">
       <c r="A85" s="30"/>
@@ -2616,8 +2614,8 @@
         <v>8</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
       <c r="A86" s="30"/>
@@ -2629,8 +2627,8 @@
       <c r="E86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
       <c r="A87" s="30"/>
@@ -2642,8 +2640,8 @@
       <c r="E87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="30"/>
@@ -2655,8 +2653,8 @@
         <v>8</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
       <c r="A89" s="30"/>
@@ -2668,8 +2666,8 @@
       <c r="E89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="30"/>
@@ -2681,8 +2679,8 @@
         <v>8</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="30"/>
@@ -2694,14 +2692,14 @@
       <c r="E91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="1:7" ht="15.75">
-      <c r="A92" s="25">
+      <c r="A92" s="34">
         <v>4</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -2709,12 +2707,12 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="10" t="s">
         <v>113</v>
       </c>
@@ -2722,12 +2720,12 @@
       <c r="E93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="94" spans="1:7" ht="15.75">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="10" t="s">
         <v>15</v>
       </c>
@@ -2735,12 +2733,12 @@
       <c r="E94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="10" t="s">
         <v>114</v>
       </c>
@@ -2748,218 +2746,218 @@
         <v>8</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
     </row>
     <row r="97" spans="1:7" ht="15.75">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="28" t="s">
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="26" t="s">
         <v>115</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="98" spans="1:7" ht="15.75">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="28" t="s">
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="28" t="s">
+      <c r="A99" s="35"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="26" t="s">
         <v>117</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" ht="15.75">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="28" t="s">
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" ht="15.75">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="28" t="s">
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
     </row>
     <row r="102" spans="1:7" ht="15.75">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28" t="s">
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
     </row>
     <row r="103" spans="1:7" ht="15.75">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28" t="s">
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
     </row>
     <row r="104" spans="1:7" ht="15.75">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="28" t="s">
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="28" t="s">
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
     </row>
     <row r="106" spans="1:7" ht="15.75">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="28" t="s">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
     </row>
     <row r="107" spans="1:7" ht="15.75">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="28" t="s">
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
     </row>
     <row r="108" spans="1:7" ht="15.75">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="28" t="s">
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
     </row>
     <row r="109" spans="1:7" ht="15.75">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="28" t="s">
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
     </row>
     <row r="110" spans="1:7" ht="15.75">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="28" t="s">
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:7" ht="15.75">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="28" t="s">
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
     </row>
     <row r="112" spans="1:7" ht="15.75">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="10" t="s">
         <v>130</v>
       </c>
@@ -2967,12 +2965,12 @@
         <v>8</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
     </row>
     <row r="113" spans="1:7" ht="15.75">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="10" t="s">
         <v>135</v>
       </c>
@@ -2980,23 +2978,23 @@
         <v>8</v>
       </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
     </row>
     <row r="114" spans="1:7" ht="15.75">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="1:7" ht="15.75">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="19" t="s">
         <v>136</v>
       </c>
@@ -3004,12 +3002,12 @@
         <v>8</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
     </row>
     <row r="116" spans="1:7" ht="15.75">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="19" t="s">
         <v>137</v>
       </c>
@@ -3017,12 +3015,12 @@
       <c r="E116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
     </row>
     <row r="117" spans="1:7" ht="15.75">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="19" t="s">
         <v>138</v>
       </c>
@@ -3030,11 +3028,11 @@
       <c r="E117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
     </row>
     <row r="118" spans="1:7" ht="15.75">
-      <c r="A118" s="29">
+      <c r="A118" s="32">
         <v>5</v>
       </c>
       <c r="B118" s="30" t="s">
@@ -3047,11 +3045,11 @@
         <v>8</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
     </row>
     <row r="119" spans="1:7" ht="15.75">
-      <c r="A119" s="31"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="30"/>
       <c r="C119" s="19" t="s">
         <v>149</v>
@@ -3060,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26">
+      <c r="F119" s="25"/>
+      <c r="G119" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75">
-      <c r="A120" s="31"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="30"/>
       <c r="C120" s="19" t="s">
         <v>143</v>
@@ -3075,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26">
+      <c r="F120" s="25"/>
+      <c r="G120" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75">
-      <c r="A121" s="31"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="30"/>
       <c r="C121" s="19" t="s">
         <v>150</v>
@@ -3090,13 +3088,13 @@
         <v>8</v>
       </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26">
+      <c r="F121" s="25"/>
+      <c r="G121" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75">
-      <c r="A122" s="31"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="30"/>
       <c r="C122" s="19" t="s">
         <v>132</v>
@@ -3105,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26">
+      <c r="F122" s="25"/>
+      <c r="G122" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75">
-      <c r="A123" s="31"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="30"/>
       <c r="C123" s="19" t="s">
         <v>144</v>
@@ -3120,13 +3118,13 @@
         <v>8</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26">
+      <c r="F123" s="25"/>
+      <c r="G123" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75">
-      <c r="A124" s="31"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="30"/>
       <c r="C124" s="19" t="s">
         <v>155</v>
@@ -3135,13 +3133,13 @@
         <v>8</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26">
+      <c r="F124" s="25"/>
+      <c r="G124" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75">
-      <c r="A125" s="31"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="30"/>
       <c r="C125" s="19" t="s">
         <v>133</v>
@@ -3150,13 +3148,13 @@
       <c r="E125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26">
+      <c r="F125" s="25"/>
+      <c r="G125" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75">
-      <c r="A126" s="31"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="30"/>
       <c r="C126" s="19" t="s">
         <v>151</v>
@@ -3165,13 +3163,13 @@
       <c r="E126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26">
+      <c r="F126" s="25"/>
+      <c r="G126" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75">
-      <c r="A127" s="31"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="30"/>
       <c r="C127" s="19" t="s">
         <v>156</v>
@@ -3180,13 +3178,13 @@
       <c r="E127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26">
+      <c r="F127" s="25"/>
+      <c r="G127" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75">
-      <c r="A128" s="31"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="30"/>
       <c r="C128" s="19" t="s">
         <v>152</v>
@@ -3195,13 +3193,13 @@
       <c r="E128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26">
+      <c r="F128" s="25"/>
+      <c r="G128" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75">
-      <c r="A129" s="31"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="30"/>
       <c r="C129" s="19" t="s">
         <v>153</v>
@@ -3210,13 +3208,13 @@
       <c r="E129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26">
+      <c r="F129" s="25"/>
+      <c r="G129" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75">
-      <c r="A130" s="31"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="30"/>
       <c r="C130" s="19" t="s">
         <v>154</v>
@@ -3225,13 +3223,13 @@
       <c r="E130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26">
+      <c r="F130" s="25"/>
+      <c r="G130" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75">
-      <c r="A131" s="31"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="30"/>
       <c r="C131" s="19" t="s">
         <v>157</v>
@@ -3240,13 +3238,13 @@
       <c r="E131" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26">
+      <c r="F131" s="25"/>
+      <c r="G131" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75">
-      <c r="A132" s="31"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="30"/>
       <c r="C132" s="19" t="s">
         <v>134</v>
@@ -3255,13 +3253,13 @@
       <c r="E132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26">
+      <c r="F132" s="25"/>
+      <c r="G132" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75">
-      <c r="A133" s="31"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="30"/>
       <c r="C133" s="19" t="s">
         <v>169</v>
@@ -3270,13 +3268,13 @@
       <c r="E133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26">
+      <c r="F133" s="25"/>
+      <c r="G133" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75">
-      <c r="A134" s="31"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="30"/>
       <c r="C134" s="19" t="s">
         <v>158</v>
@@ -3285,13 +3283,13 @@
       <c r="E134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26">
+      <c r="F134" s="25"/>
+      <c r="G134" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75">
-      <c r="A135" s="31"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="30"/>
       <c r="C135" s="19" t="s">
         <v>159</v>
@@ -3300,13 +3298,13 @@
       <c r="E135" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26">
+      <c r="F135" s="25"/>
+      <c r="G135" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75">
-      <c r="A136" s="31"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="30"/>
       <c r="C136" s="19" t="s">
         <v>160</v>
@@ -3315,13 +3313,13 @@
       <c r="E136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26">
+      <c r="F136" s="25"/>
+      <c r="G136" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75">
-      <c r="A137" s="31"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="30"/>
       <c r="C137" s="19" t="s">
         <v>161</v>
@@ -3330,13 +3328,13 @@
         <v>8</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26">
+      <c r="F137" s="25"/>
+      <c r="G137" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75">
-      <c r="A138" s="31"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="30"/>
       <c r="C138" s="19" t="s">
         <v>162</v>
@@ -3345,13 +3343,13 @@
         <v>8</v>
       </c>
       <c r="E138" s="2"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26">
+      <c r="F138" s="25"/>
+      <c r="G138" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75">
-      <c r="A139" s="31"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="30"/>
       <c r="C139" s="19" t="s">
         <v>165</v>
@@ -3360,13 +3358,13 @@
         <v>8</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26">
+      <c r="F139" s="25"/>
+      <c r="G139" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75">
-      <c r="A140" s="31"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="30"/>
       <c r="C140" s="19" t="s">
         <v>163</v>
@@ -3375,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26">
+      <c r="F140" s="25"/>
+      <c r="G140" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75">
-      <c r="A141" s="31"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="30"/>
       <c r="C141" s="19" t="s">
         <v>164</v>
@@ -3390,13 +3388,13 @@
       <c r="E141" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26">
+      <c r="F141" s="25"/>
+      <c r="G141" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75">
-      <c r="A142" s="31"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="30"/>
       <c r="C142" s="19" t="s">
         <v>131</v>
@@ -3405,13 +3403,13 @@
         <v>8</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26">
+      <c r="F142" s="25"/>
+      <c r="G142" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75">
-      <c r="A143" s="31"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="30"/>
       <c r="C143" s="19" t="s">
         <v>166</v>
@@ -3420,13 +3418,13 @@
         <v>8</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26">
+      <c r="F143" s="25"/>
+      <c r="G143" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75">
-      <c r="A144" s="31"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="30"/>
       <c r="C144" s="19" t="s">
         <v>167</v>
@@ -3435,13 +3433,13 @@
         <v>8</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26">
+      <c r="F144" s="25"/>
+      <c r="G144" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75">
-      <c r="A145" s="31"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="30"/>
       <c r="C145" s="19" t="s">
         <v>168</v>
@@ -3450,13 +3448,13 @@
       <c r="E145" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26">
+      <c r="F145" s="25"/>
+      <c r="G145" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75">
-      <c r="A146" s="31"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="30"/>
       <c r="C146" s="19" t="s">
         <v>170</v>
@@ -3465,13 +3463,13 @@
         <v>8</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26">
+      <c r="F146" s="25"/>
+      <c r="G146" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75">
-      <c r="A147" s="31"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="30"/>
       <c r="C147" s="8" t="s">
         <v>139</v>
@@ -3480,11 +3478,11 @@
       <c r="E147" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
     </row>
     <row r="148" spans="1:7" ht="15.75">
-      <c r="A148" s="31"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="30"/>
       <c r="C148" s="10" t="s">
         <v>140</v>
@@ -3493,11 +3491,11 @@
         <v>8</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="1:7" ht="15.75">
-      <c r="A149" s="31"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="30"/>
       <c r="C149" s="8" t="s">
         <v>141</v>
@@ -3506,11 +3504,11 @@
         <v>8</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
     </row>
     <row r="150" spans="1:7" ht="15.75">
-      <c r="A150" s="32">
+      <c r="A150" s="31">
         <v>6</v>
       </c>
       <c r="B150" s="30" t="s">
@@ -3523,11 +3521,11 @@
       <c r="E150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
     </row>
     <row r="151" spans="1:7" ht="15.75">
-      <c r="A151" s="32"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="30"/>
       <c r="C151" s="8" t="s">
         <v>142</v>
@@ -3536,8 +3534,8 @@
         <v>8</v>
       </c>
       <c r="E151" s="23"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
     </row>
     <row r="152" spans="1:7">
       <c r="C152" s="1"/>
